--- a/document/实训基地人员名单.xlsx
+++ b/document/实训基地人员名单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>项目部人员名单</t>
   </si>
@@ -126,6 +126,9 @@
     <t>张明媛</t>
   </si>
   <si>
+    <t>UI特长</t>
+  </si>
+  <si>
     <t>计算机四班</t>
   </si>
   <si>
@@ -139,9 +142,6 @@
   </si>
   <si>
     <t>贾海港</t>
-  </si>
-  <si>
-    <t>王芷烽</t>
   </si>
   <si>
     <t>高彬</t>
@@ -164,10 +164,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -211,6 +211,112 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -219,72 +325,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -293,63 +333,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,37 +375,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,66 +543,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -489,73 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,30 +610,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -649,17 +625,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -670,21 +635,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -707,6 +657,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -715,149 +715,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,6 +898,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1251,10 +1257,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7314814814815" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
@@ -1523,18 +1529,18 @@
         <v>30</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:4">
       <c r="A26" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="5">
         <v>24</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" s="11"/>
     </row>
@@ -1544,65 +1550,55 @@
         <v>25</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" s="13"/>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A28" s="5" t="s">
-        <v>34</v>
+      <c r="A28" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="B28" s="5">
         <v>26</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" s="13"/>
     </row>
     <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" s="5"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="5">
         <v>27</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" s="13"/>
     </row>
     <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="5"/>
+      <c r="A30" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="B30" s="5">
         <v>28</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D30" s="13"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
       <c r="A31" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B31" s="5">
         <v>29</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="13"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:4">
-      <c r="A32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="5">
-        <v>30</v>
-      </c>
-      <c r="C32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D31" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1610,7 +1606,7 @@
     <mergeCell ref="A3:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
